--- a/xls/square_high_un_16_tri3_13.xlsx
+++ b/xls/square_high_un_16_tri3_13.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-1.601131498575021</v>
+        <v>-2.1774077027941674</v>
       </c>
       <c r="J13">
-        <v>-1.75788888926882</v>
+        <v>-1.934279026751122</v>
       </c>
       <c r="K13">
-        <v>-0.7532657901617249</v>
+        <v>-0.8334589295018511</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-2.1619178193167548</v>
+        <v>-2.2075017590128785</v>
       </c>
       <c r="J14">
-        <v>-1.8860375481454406</v>
+        <v>-1.8092379237264542</v>
       </c>
       <c r="K14">
-        <v>-0.8184023987421459</v>
+        <v>-0.46071573763078916</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-2.1182661175805997</v>
+        <v>-1.9658166010599243</v>
       </c>
       <c r="J15">
-        <v>-1.7011520148064232</v>
+        <v>-1.5903359535923798</v>
       </c>
       <c r="K15">
-        <v>-0.3044662197179425</v>
+        <v>-0.020267972979455935</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-1.8152688673717146</v>
+        <v>-1.7861638776617266</v>
       </c>
       <c r="J16">
-        <v>-1.4676784105487275</v>
+        <v>-1.5577966392267053</v>
       </c>
       <c r="K16">
-        <v>0.016644314912308635</v>
+        <v>-0.16847138585395535</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-1.1904463208021319</v>
+        <v>-0.5763446805796818</v>
       </c>
       <c r="J17">
-        <v>-1.0461163533317652</v>
+        <v>-0.5177563359799717</v>
       </c>
       <c r="K17">
-        <v>0.6362238694007524</v>
+        <v>1.3946124865942011</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.7375592159246217</v>
+        <v>-0.10280994303625145</v>
       </c>
       <c r="J18">
-        <v>-0.6881642821259647</v>
+        <v>-0.09152075005051094</v>
       </c>
       <c r="K18">
-        <v>1.1038435047570143</v>
+        <v>2.4022126272923727</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.29900752335979036</v>
+        <v>-8.711052176618506e-6</v>
       </c>
       <c r="J19">
-        <v>-0.2865920382867495</v>
+        <v>-1.131314751762812e-5</v>
       </c>
       <c r="K19">
-        <v>1.637305139931593</v>
+        <v>2.024180151774578</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.007833368665681975</v>
+        <v>7.804442348096188e-7</v>
       </c>
       <c r="J20">
-        <v>-0.014356893899474367</v>
+        <v>-7.376449727127877e-7</v>
       </c>
       <c r="K20">
-        <v>2.376157451495227</v>
+        <v>1.6587271980156169</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>2.140818798851451e-5</v>
+        <v>-5.635538554702063e-7</v>
       </c>
       <c r="J21">
-        <v>-9.246367361163507e-6</v>
+        <v>-1.1663297113204032e-6</v>
       </c>
       <c r="K21">
-        <v>2.303015668198248</v>
+        <v>1.595406945406883</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>2.3257523892692233e-6</v>
+        <v>-5.681286572099531e-7</v>
       </c>
       <c r="J22">
-        <v>-3.6483373149920263e-6</v>
+        <v>-8.336522317192995e-7</v>
       </c>
       <c r="K22">
-        <v>1.9949610652886673</v>
+        <v>1.4807546092027823</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-2.224259487191157e-7</v>
+        <v>-4.936887033416064e-7</v>
       </c>
       <c r="J23">
-        <v>-2.84563164005644e-6</v>
+        <v>-6.43590304891265e-7</v>
       </c>
       <c r="K23">
-        <v>1.8543269039595731</v>
+        <v>1.4075761614360756</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>2.0361004190566517e-7</v>
+        <v>-4.253439757568715e-7</v>
       </c>
       <c r="J24">
-        <v>-1.3817329765169597e-6</v>
+        <v>-5.910749871433481e-7</v>
       </c>
       <c r="K24">
-        <v>1.727534045290426</v>
+        <v>1.3979900551505593</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-5.807262777383673e-7</v>
+        <v>-5.217570536678167e-7</v>
       </c>
       <c r="J25">
-        <v>-1.37594816245388e-6</v>
+        <v>-5.85992799771357e-7</v>
       </c>
       <c r="K25">
-        <v>1.6470342151554476</v>
+        <v>1.3573467800611625</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-2.8219122828449626e-7</v>
+        <v>-3.9430098368515595e-7</v>
       </c>
       <c r="J26">
-        <v>-8.894313355816295e-7</v>
+        <v>-4.812131707769134e-7</v>
       </c>
       <c r="K26">
-        <v>1.569099902741703</v>
+        <v>1.3309890942956397</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-4.239066829322131e-7</v>
+        <v>-4.3344077712551605e-7</v>
       </c>
       <c r="J27">
-        <v>-9.132713768744711e-7</v>
+        <v>-4.831451976009674e-7</v>
       </c>
       <c r="K27">
-        <v>1.549650282391849</v>
+        <v>1.3139009152487793</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-2.461509387186811e-7</v>
+        <v>-4.2455256044714975e-7</v>
       </c>
       <c r="J28">
-        <v>-6.266954168756581e-7</v>
+        <v>-4.6786464065271285e-7</v>
       </c>
       <c r="K28">
-        <v>1.475775120126813</v>
+        <v>1.3051480284078119</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.635083315890257e-7</v>
+        <v>-4.745595644493093e-7</v>
       </c>
       <c r="J29">
-        <v>-6.623557534609456e-7</v>
+        <v>-5.072896664588125e-7</v>
       </c>
       <c r="K29">
-        <v>1.4308915499567934</v>
+        <v>1.3161668073751165</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-4.6184208911747994e-7</v>
+        <v>-3.948848422108787e-7</v>
       </c>
       <c r="J30">
-        <v>-5.614033785192724e-7</v>
+        <v>-4.321147677261958e-7</v>
       </c>
       <c r="K30">
-        <v>1.3678126240643205</v>
+        <v>1.2856424067069172</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-4.933943420479227e-7</v>
+        <v>-4.1757977193244386e-7</v>
       </c>
       <c r="J31">
-        <v>-5.50835595076052e-7</v>
+        <v>-4.4073616963269e-7</v>
       </c>
       <c r="K31">
-        <v>1.3436530226464767</v>
+        <v>1.2819247238219138</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-4.3300490376168424e-7</v>
+        <v>-3.843265772203089e-7</v>
       </c>
       <c r="J32">
-        <v>-4.810760938864974e-7</v>
+        <v>-4.1730608757866974e-7</v>
       </c>
       <c r="K32">
-        <v>1.3121043890801432</v>
+        <v>1.2765035810358758</v>
       </c>
     </row>
   </sheetData>
